--- a/StructureDefinition-us-core-encounter.xlsx
+++ b/StructureDefinition-us-core-encounter.xlsx
@@ -9,11 +9,14 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$91</definedName>
+  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2680" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3291" uniqueCount="565">
   <si>
     <t>Property</t>
   </si>
@@ -330,13 +333,190 @@
 </t>
   </si>
   <si>
-    <t>Encounter.implicitRules</t>
+    <t>Encounter.meta.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Encounter.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Encounter.meta.versionId</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Meta.versionId</t>
+  </si>
+  <si>
+    <t>Encounter.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>When the resource last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://hl7.org/fhir/R4/http.html#read) interaction.</t>
+  </si>
+  <si>
+    <t>Meta.lastUpdated</t>
+  </si>
+  <si>
+    <t>Encounter.meta.source</t>
   </si>
   <si>
     <t xml:space="preserve">uri
 </t>
   </si>
   <si>
+    <t>Identifies where the resource comes from</t>
+  </si>
+  <si>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+  </si>
+  <si>
+    <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
+This element can be used to indicate where the current master source of a resource that has a canonical URL if the resource is no longer hosted at the canonical URL.</t>
+  </si>
+  <si>
+    <t>Meta.source</t>
+  </si>
+  <si>
+    <t>Encounter.meta.profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(StructureDefinition)
+</t>
+  </si>
+  <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t>Meta.profile</t>
+  </si>
+  <si>
+    <t>Encounter.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource. The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t>Meta.security</t>
+  </si>
+  <si>
+    <t>Encounter.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+  </si>
+  <si>
+    <t>Meta.tag</t>
+  </si>
+  <si>
+    <t>Encounter.implicitRules</t>
+  </si>
+  <si>
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
@@ -432,28 +612,36 @@
     <t>Encounter.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>Encounter.extension:us-core-interpreter-required</t>
+  </si>
+  <si>
+    <t>us-core-interpreter-required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/uscdi5-sandbox/StructureDefinition/us-core-interpreter-required}
 </t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>𝗔𝗗𝗗𝗜𝗧𝗜𝗢𝗡𝗔𝗟 𝗨𝗦𝗖𝗗𝗜: Whether the patient needs an interpreter</t>
+  </si>
+  <si>
+    <t>This individual needs an interpreter to communicate healthcare information.</t>
+  </si>
+  <si>
+    <t>The individual does not speak the default language of the organization, and hence requires an interpreter.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>Encounter.modifierExtension</t>
@@ -497,6 +685,171 @@
     <t>PV1-19</t>
   </si>
   <si>
+    <t>Encounter.identifier.id</t>
+  </si>
+  <si>
+    <t>Encounter.identifier.extension</t>
+  </si>
+  <si>
+    <t>Encounter.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Encounter.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>Encounter.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>Encounter.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>Encounter.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Encounter.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
     <t>Encounter.status</t>
   </si>
   <si>
@@ -507,9 +860,6 @@
   </si>
   <si>
     <t>Note that internal business rules will determine the appropriate transitions that may occur between statuses (and also classes).</t>
-  </si>
-  <si>
-    <t>required</t>
   </si>
   <si>
     <t>Current state of the encounter.</t>
@@ -546,32 +896,10 @@
     <t>The current status is always found in the current version of the resource, not the status history.</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Encounter.statusHistory.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
     <t>Encounter.statusHistory.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Encounter.statusHistory.modifierExtension</t>
@@ -597,10 +925,6 @@
     <t>Encounter.statusHistory.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
     <t>The time that the episode was in the specified status</t>
   </si>
   <si>
@@ -610,19 +934,12 @@
     <t>Encounter.class</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
     <t>Classification of patient encounter</t>
   </si>
   <si>
     <t>Concepts representing classification of patient encounter such as ambulatory (outpatient), inpatient, emergency, home health or others due to local variations.</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
     <t>Classification of the encounter.</t>
   </si>
   <si>
@@ -677,10 +994,6 @@
     <t>Encounter.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
     <t>Specific type of encounter</t>
   </si>
   <si>
@@ -690,13 +1003,10 @@
     <t>Since there are many ways to further classify encounters, this element is 0..*.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>The type of encounter.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-type</t>
+    <t>Valueset to describe the Encounter Type</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-encounter-type</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -754,7 +1064,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient|Group)
 </t>
   </si>
   <si>
@@ -893,7 +1203,7 @@
     <t>Encounter.participant.individual</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|RelatedPerson)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole|http://hl7.org/fhir/us/core/StructureDefinition/us-core-relatedperson)
 </t>
   </si>
   <si>
@@ -1017,7 +1327,7 @@
     <t>Encounter.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Procedure|Observation|ImmunizationRecommendation)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition-problems-health-concerns|http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition-encounter-diagnosis|http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure|Observation|ImmunizationRecommendation)
 </t>
   </si>
   <si>
@@ -1307,10 +1617,10 @@
     <t>Category or kind of location after discharge.</t>
   </si>
   <si>
-    <t>Discharge Disposition.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-discharge-disposition</t>
+    <t>[National Uniform Billing Committee](http://www.nubc.org/), manual UB-04, UB form locator 17</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-discharge-disposition</t>
   </si>
   <si>
     <t>.dischargeDispositionCode</t>
@@ -1346,7 +1656,7 @@
     <t>Encounter.location.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-location)
 </t>
   </si>
   <si>
@@ -1417,7 +1727,7 @@
     <t>Encounter.serviceProvider</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization)
 </t>
   </si>
   <si>
@@ -1583,6 +1893,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1771,7 +2096,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN74"/>
+  <dimension ref="A1:AN91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1780,9 +2105,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.67578125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="46.3828125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="45.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="26.8359375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1790,7 +2115,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="71.65625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1799,16 +2124,16 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="74.65625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.25390625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="60.56640625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="45.67578125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1816,7 +2141,7 @@
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="92.67578125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="191.1328125" customWidth="true" bestFit="true"/>
   </cols>
@@ -1943,7 +2268,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>33</v>
       </c>
@@ -2055,7 +2380,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>89</v>
       </c>
@@ -2169,7 +2494,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>97</v>
       </c>
@@ -2188,7 +2513,7 @@
         <v>90</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>82</v>
@@ -2281,7 +2606,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>103</v>
       </c>
@@ -2303,10 +2628,10 @@
         <v>82</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>104</v>
@@ -2317,9 +2642,7 @@
       <c r="M5" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="N5" t="s" s="2">
-        <v>107</v>
-      </c>
+      <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
         <v>82</v>
@@ -2368,7 +2691,7 @@
         <v>82</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>80</v>
@@ -2380,13 +2703,13 @@
         <v>82</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>82</v>
@@ -2395,7 +2718,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>109</v>
       </c>
@@ -2404,14 +2727,14 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>82</v>
@@ -2423,16 +2746,16 @@
         <v>82</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2458,49 +2781,49 @@
         <v>82</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="Y6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AC6" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="AA6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AD6" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>82</v>
@@ -2509,16 +2832,16 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2534,10 +2857,10 @@
         <v>82</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s" s="2">
         <v>121</v>
@@ -2614,53 +2937,53 @@
         <v>82</v>
       </c>
       <c r="AL7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN7" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" hidden="true">
+      <c r="A8" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="AM7" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN7" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>126</v>
-      </c>
       <c r="B8" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M8" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2710,25 +3033,25 @@
         <v>82</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>82</v>
@@ -2737,23 +3060,23 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>82</v>
@@ -2762,19 +3085,19 @@
         <v>82</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2824,25 +3147,25 @@
         <v>82</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>82</v>
@@ -2851,16 +3174,16 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2873,26 +3196,24 @@
         <v>82</v>
       </c>
       <c r="I10" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J10" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="J10" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="K10" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>82</v>
       </c>
@@ -2940,7 +3261,7 @@
         <v>82</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
@@ -2952,13 +3273,13 @@
         <v>82</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>82</v>
@@ -2967,12 +3288,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2995,15 +3316,17 @@
         <v>91</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>82</v>
@@ -3028,13 +3351,13 @@
         <v>82</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>82</v>
@@ -3052,7 +3375,7 @@
         <v>82</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -3067,24 +3390,24 @@
         <v>102</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="AL11" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM11" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN11" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" hidden="true">
+      <c r="A12" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="AM11" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="2">
-        <v>155</v>
-      </c>
       <c r="B12" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3092,31 +3415,31 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3142,37 +3465,37 @@
         <v>82</v>
       </c>
       <c r="X12" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF12" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="Y12" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>155</v>
-      </c>
       <c r="AG12" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>82</v>
@@ -3181,24 +3504,24 @@
         <v>102</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>163</v>
+        <v>82</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>164</v>
+        <v>82</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>165</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3209,28 +3532,28 @@
         <v>80</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3280,13 +3603,13 @@
         <v>82</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>82</v>
@@ -3298,7 +3621,7 @@
         <v>82</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>171</v>
+        <v>82</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>82</v>
@@ -3307,12 +3630,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3335,15 +3658,17 @@
         <v>82</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>82</v>
@@ -3368,13 +3693,13 @@
         <v>82</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>82</v>
+        <v>170</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>82</v>
+        <v>171</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>82</v>
@@ -3392,7 +3717,7 @@
         <v>82</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
@@ -3404,13 +3729,13 @@
         <v>82</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>171</v>
+        <v>82</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>82</v>
@@ -3419,23 +3744,23 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>82</v>
@@ -3447,16 +3772,16 @@
         <v>82</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="M15" t="s" s="2">
         <v>178</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3506,25 +3831,25 @@
         <v>82</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>82</v>
@@ -3533,16 +3858,16 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3555,26 +3880,24 @@
         <v>82</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>136</v>
+        <v>184</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>82</v>
       </c>
@@ -3622,7 +3945,7 @@
         <v>82</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -3634,13 +3957,13 @@
         <v>82</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>133</v>
+        <v>189</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>82</v>
@@ -3649,12 +3972,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3662,10 +3985,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>82</v>
@@ -3677,13 +4000,13 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>156</v>
+        <v>191</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3710,49 +4033,47 @@
         <v>82</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>159</v>
+        <v>82</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>161</v>
+        <v>82</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="AC17" s="2"/>
       <c r="AD17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>171</v>
+        <v>82</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>82</v>
@@ -3761,20 +4082,22 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="D18" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>90</v>
@@ -3789,15 +4112,17 @@
         <v>82</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>82</v>
@@ -3846,25 +4171,25 @@
         <v>82</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>82</v>
+        <v>200</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>171</v>
+        <v>82</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>82</v>
@@ -3873,44 +4198,48 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>191</v>
+        <v>111</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
       </c>
@@ -3934,13 +4263,13 @@
         <v>82</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>194</v>
+        <v>82</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>195</v>
+        <v>82</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>196</v>
+        <v>82</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>82</v>
@@ -3958,39 +4287,39 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>198</v>
+        <v>82</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>199</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4004,22 +4333,22 @@
         <v>81</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>167</v>
+        <v>207</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4070,7 +4399,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4085,24 +4414,24 @@
         <v>102</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>82</v>
+        <v>210</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>82</v>
+        <v>212</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>82</v>
+        <v>213</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4125,13 +4454,13 @@
         <v>82</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>173</v>
+        <v>104</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>174</v>
+        <v>105</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>175</v>
+        <v>106</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4182,7 +4511,7 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>176</v>
+        <v>107</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4200,7 +4529,7 @@
         <v>82</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>171</v>
+        <v>108</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>82</v>
@@ -4209,16 +4538,16 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4237,16 +4566,16 @@
         <v>82</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>178</v>
+        <v>113</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4284,19 +4613,19 @@
         <v>82</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>179</v>
+        <v>118</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4308,13 +4637,13 @@
         <v>82</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>171</v>
+        <v>108</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>82</v>
@@ -4323,23 +4652,23 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>181</v>
+        <v>82</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>82</v>
@@ -4351,19 +4680,19 @@
         <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>139</v>
+        <v>219</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>145</v>
+        <v>220</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>82</v>
@@ -4388,13 +4717,13 @@
         <v>82</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>82</v>
+        <v>221</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>82</v>
+        <v>222</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>82</v>
+        <v>223</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>82</v>
@@ -4412,39 +4741,39 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>184</v>
+        <v>224</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>133</v>
+        <v>225</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>82</v>
+        <v>189</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4452,7 +4781,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>90</v>
@@ -4464,19 +4793,23 @@
         <v>82</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
       </c>
@@ -4500,13 +4833,13 @@
         <v>82</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>194</v>
+        <v>148</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>195</v>
+        <v>232</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>196</v>
+        <v>233</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>82</v>
@@ -4524,10 +4857,10 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>90</v>
@@ -4542,21 +4875,21 @@
         <v>82</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>171</v>
+        <v>225</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>82</v>
+        <v>235</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4570,25 +4903,29 @@
         <v>90</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>187</v>
+        <v>132</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
       </c>
@@ -4600,7 +4937,7 @@
         <v>82</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>82</v>
+        <v>241</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>82</v>
@@ -4636,10 +4973,10 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>209</v>
+        <v>242</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>90</v>
@@ -4654,21 +4991,21 @@
         <v>82</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>171</v>
+        <v>243</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>82</v>
+        <v>244</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4676,13 +5013,13 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>82</v>
@@ -4691,16 +5028,16 @@
         <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>213</v>
+        <v>104</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4714,7 +5051,7 @@
         <v>82</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>82</v>
+        <v>249</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>82</v>
@@ -4726,13 +5063,13 @@
         <v>82</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>217</v>
+        <v>82</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>218</v>
+        <v>82</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>219</v>
+        <v>82</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>82</v>
@@ -4750,13 +5087,13 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>212</v>
+        <v>250</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>82</v>
@@ -4765,24 +5102,24 @@
         <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>220</v>
+        <v>82</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>198</v>
+        <v>82</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>222</v>
+        <v>252</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4805,13 +5142,13 @@
         <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>213</v>
+        <v>254</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4838,13 +5175,13 @@
         <v>82</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>217</v>
+        <v>82</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>226</v>
+        <v>82</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>227</v>
+        <v>82</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>82</v>
@@ -4862,7 +5199,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -4877,24 +5214,24 @@
         <v>102</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>220</v>
+        <v>82</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>171</v>
+        <v>258</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>228</v>
+        <v>259</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4914,18 +5251,20 @@
         <v>82</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>213</v>
+        <v>261</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -4950,13 +5289,13 @@
         <v>82</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>217</v>
+        <v>82</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>231</v>
+        <v>82</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>232</v>
+        <v>82</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>82</v>
@@ -4974,7 +5313,7 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -4992,53 +5331,53 @@
         <v>82</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>234</v>
+        <v>82</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>235</v>
+        <v>267</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>237</v>
+        <v>82</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>238</v>
+        <v>166</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5064,13 +5403,13 @@
         <v>82</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>82</v>
+        <v>221</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>82</v>
+        <v>272</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>82</v>
+        <v>273</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>82</v>
@@ -5088,10 +5427,10 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>90</v>
@@ -5103,24 +5442,24 @@
         <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>245</v>
+        <v>277</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5140,18 +5479,20 @@
         <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>82</v>
@@ -5200,7 +5541,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5215,35 +5556,35 @@
         <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>250</v>
+        <v>82</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>171</v>
+        <v>108</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>251</v>
+        <v>82</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>252</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>254</v>
+        <v>82</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>82</v>
@@ -5255,13 +5596,13 @@
         <v>82</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>255</v>
+        <v>104</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>256</v>
+        <v>105</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>257</v>
+        <v>106</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5312,25 +5653,25 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>253</v>
+        <v>107</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>258</v>
+        <v>82</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>259</v>
+        <v>108</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>82</v>
@@ -5339,16 +5680,16 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5364,18 +5705,20 @@
         <v>82</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>261</v>
+        <v>112</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>82</v>
@@ -5424,7 +5767,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>260</v>
+        <v>118</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5436,59 +5779,63 @@
         <v>82</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>263</v>
+        <v>82</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>264</v>
+        <v>108</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>265</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>82</v>
+        <v>286</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>173</v>
+        <v>111</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>174</v>
+        <v>287</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
       </c>
@@ -5536,25 +5883,25 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>176</v>
+        <v>289</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>82</v>
@@ -5563,23 +5910,23 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>82</v>
@@ -5591,17 +5938,15 @@
         <v>82</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>137</v>
+        <v>269</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -5626,13 +5971,13 @@
         <v>82</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>82</v>
+        <v>221</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>82</v>
+        <v>272</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>82</v>
+        <v>273</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>82</v>
@@ -5650,25 +5995,25 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>179</v>
+        <v>290</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>171</v>
+        <v>108</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>82</v>
@@ -5677,48 +6022,44 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>181</v>
+        <v>82</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>136</v>
+        <v>254</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>182</v>
+        <v>292</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>82</v>
       </c>
@@ -5766,25 +6107,25 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>184</v>
+        <v>291</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>82</v>
@@ -5793,12 +6134,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5806,13 +6147,13 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>82</v>
@@ -5821,17 +6162,15 @@
         <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>213</v>
+        <v>144</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>82</v>
@@ -5856,13 +6195,13 @@
         <v>82</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>194</v>
+        <v>148</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>82</v>
@@ -5880,13 +6219,13 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>82</v>
@@ -5895,24 +6234,24 @@
         <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>274</v>
+        <v>82</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>82</v>
+        <v>300</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>276</v>
+        <v>301</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5923,7 +6262,7 @@
         <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>82</v>
@@ -5935,13 +6274,13 @@
         <v>82</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>187</v>
+        <v>279</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5992,13 +6331,13 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>82</v>
@@ -6010,21 +6349,21 @@
         <v>82</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>280</v>
+        <v>108</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>281</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>282</v>
+        <v>305</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>282</v>
+        <v>305</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6044,16 +6383,16 @@
         <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>283</v>
+        <v>104</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>284</v>
+        <v>105</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>285</v>
+        <v>106</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6104,7 +6443,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>282</v>
+        <v>107</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6116,31 +6455,31 @@
         <v>82</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>286</v>
+        <v>82</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>287</v>
+        <v>108</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>288</v>
+        <v>82</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>289</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6156,18 +6495,20 @@
         <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>291</v>
+        <v>111</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>292</v>
+        <v>112</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6216,7 +6557,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>290</v>
+        <v>118</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6228,61 +6569,63 @@
         <v>82</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>258</v>
+        <v>82</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>294</v>
+        <v>108</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>295</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>82</v>
+        <v>286</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>187</v>
+        <v>111</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
       </c>
@@ -6330,39 +6673,39 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>300</v>
+        <v>82</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>301</v>
+        <v>189</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>302</v>
+        <v>82</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>303</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6370,7 +6713,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>90</v>
@@ -6385,17 +6728,15 @@
         <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>305</v>
+        <v>144</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -6420,13 +6761,13 @@
         <v>82</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>82</v>
+        <v>297</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>82</v>
+        <v>298</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>82</v>
@@ -6444,10 +6785,10 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>90</v>
@@ -6459,19 +6800,19 @@
         <v>102</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>300</v>
+        <v>82</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>309</v>
+        <v>108</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>310</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
         <v>311</v>
       </c>
@@ -6480,14 +6821,14 @@
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>312</v>
+        <v>82</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>82</v>
@@ -6496,20 +6837,18 @@
         <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>213</v>
+        <v>254</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="M42" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>315</v>
-      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>82</v>
@@ -6534,13 +6873,13 @@
         <v>82</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>316</v>
+        <v>82</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>317</v>
+        <v>82</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>82</v>
@@ -6561,10 +6900,10 @@
         <v>311</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>82</v>
@@ -6573,38 +6912,38 @@
         <v>102</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>318</v>
+        <v>82</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>319</v>
+        <v>108</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>320</v>
+        <v>82</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>321</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>312</v>
+        <v>82</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>82</v>
@@ -6613,16 +6952,16 @@
         <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>323</v>
+        <v>227</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6648,13 +6987,13 @@
         <v>82</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>82</v>
+        <v>318</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>82</v>
+        <v>319</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>82</v>
@@ -6672,7 +7011,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -6687,24 +7026,24 @@
         <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6715,7 +7054,7 @@
         <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>82</v>
@@ -6727,13 +7066,13 @@
         <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>167</v>
+        <v>227</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6760,13 +7099,13 @@
         <v>82</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>82</v>
+        <v>156</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>82</v>
+        <v>326</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>82</v>
+        <v>327</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>82</v>
@@ -6784,13 +7123,13 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>82</v>
@@ -6799,19 +7138,19 @@
         <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>82</v>
+        <v>320</v>
       </c>
       <c r="AL44" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN44" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AM44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>82</v>
-      </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
         <v>329</v>
       </c>
@@ -6839,13 +7178,13 @@
         <v>82</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>173</v>
+        <v>227</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>174</v>
+        <v>330</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>175</v>
+        <v>331</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6872,13 +7211,13 @@
         <v>82</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>82</v>
+        <v>156</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>82</v>
+        <v>331</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>82</v>
+        <v>332</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>82</v>
@@ -6896,7 +7235,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>176</v>
+        <v>329</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -6908,59 +7247,59 @@
         <v>82</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>171</v>
+        <v>333</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>82</v>
+        <v>334</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>82</v>
+        <v>335</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>135</v>
+        <v>337</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>136</v>
+        <v>338</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>137</v>
+        <v>339</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>178</v>
+        <v>340</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>139</v>
+        <v>341</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7010,43 +7349,43 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>179</v>
+        <v>336</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>82</v>
+        <v>342</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>171</v>
+        <v>343</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>82</v>
+        <v>344</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>82</v>
+        <v>345</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>181</v>
+        <v>82</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7059,26 +7398,22 @@
         <v>82</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>136</v>
+        <v>347</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>182</v>
+        <v>348</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>82</v>
       </c>
@@ -7126,7 +7461,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>184</v>
+        <v>346</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7138,38 +7473,38 @@
         <v>82</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>82</v>
+        <v>350</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>82</v>
+        <v>351</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>82</v>
+        <v>352</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>82</v>
@@ -7178,20 +7513,18 @@
         <v>82</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>82</v>
@@ -7240,13 +7573,13 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>82</v>
@@ -7255,24 +7588,24 @@
         <v>102</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>337</v>
+        <v>358</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>338</v>
+        <v>359</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>320</v>
+        <v>82</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>339</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7283,25 +7616,25 @@
         <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>213</v>
+        <v>279</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>341</v>
+        <v>361</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7328,13 +7661,13 @@
         <v>82</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>343</v>
+        <v>82</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>344</v>
+        <v>82</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>82</v>
@@ -7352,13 +7685,13 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>82</v>
@@ -7367,24 +7700,24 @@
         <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>82</v>
+        <v>363</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>171</v>
+        <v>364</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>82</v>
+        <v>365</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7407,13 +7740,13 @@
         <v>82</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>346</v>
+        <v>104</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>347</v>
+        <v>105</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>348</v>
+        <v>106</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7464,7 +7797,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>345</v>
+        <v>107</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7476,13 +7809,13 @@
         <v>82</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>349</v>
+        <v>108</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>82</v>
@@ -7491,16 +7824,16 @@
         <v>82</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7519,16 +7852,16 @@
         <v>82</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>351</v>
+        <v>111</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>352</v>
+        <v>112</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>353</v>
+        <v>113</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>354</v>
+        <v>114</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7578,7 +7911,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>350</v>
+        <v>118</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -7590,13 +7923,13 @@
         <v>82</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>355</v>
+        <v>108</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>82</v>
@@ -7605,46 +7938,48 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>82</v>
+        <v>286</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>357</v>
+        <v>287</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>358</v>
+        <v>288</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="O52" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
       </c>
@@ -7692,25 +8027,25 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>356</v>
+        <v>289</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>360</v>
+        <v>189</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>82</v>
@@ -7719,12 +8054,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7735,27 +8070,29 @@
         <v>80</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>173</v>
+        <v>227</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>174</v>
+        <v>370</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -7780,13 +8117,13 @@
         <v>82</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>82</v>
+        <v>371</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>82</v>
+        <v>373</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>82</v>
@@ -7804,53 +8141,53 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>176</v>
+        <v>369</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>82</v>
+        <v>374</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>171</v>
+        <v>375</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>82</v>
+        <v>376</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>82</v>
@@ -7859,17 +8196,15 @@
         <v>82</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>136</v>
+        <v>254</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>137</v>
+        <v>378</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>82</v>
@@ -7918,75 +8253,71 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>179</v>
+        <v>377</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>171</v>
+        <v>380</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>82</v>
+        <v>381</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>181</v>
+        <v>82</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>136</v>
+        <v>383</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>182</v>
+        <v>384</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>82</v>
       </c>
@@ -8034,39 +8365,39 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>184</v>
+        <v>382</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>82</v>
+        <v>386</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>133</v>
+        <v>387</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>82</v>
+        <v>388</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>82</v>
+        <v>389</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>364</v>
+        <v>390</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>364</v>
+        <v>390</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8077,7 +8408,7 @@
         <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>82</v>
@@ -8086,16 +8417,16 @@
         <v>82</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>148</v>
+        <v>391</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>365</v>
+        <v>392</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>366</v>
+        <v>393</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8146,13 +8477,13 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>364</v>
+        <v>390</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>82</v>
@@ -8161,24 +8492,24 @@
         <v>102</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>82</v>
+        <v>358</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>152</v>
+        <v>394</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>367</v>
+        <v>395</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>368</v>
+        <v>396</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>368</v>
+        <v>396</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8192,7 +8523,7 @@
         <v>90</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>82</v>
@@ -8201,15 +8532,17 @@
         <v>82</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>369</v>
+        <v>254</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>370</v>
+        <v>397</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>82</v>
@@ -8258,7 +8591,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>368</v>
+        <v>396</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8273,24 +8606,24 @@
         <v>102</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>82</v>
+        <v>400</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>372</v>
+        <v>401</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>82</v>
+        <v>402</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>82</v>
+        <v>403</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>373</v>
+        <v>404</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>373</v>
+        <v>404</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8313,15 +8646,17 @@
         <v>82</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>213</v>
+        <v>405</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>374</v>
+        <v>406</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>407</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>408</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>82</v>
@@ -8346,13 +8681,13 @@
         <v>82</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>376</v>
+        <v>82</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>377</v>
+        <v>82</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>82</v>
@@ -8370,7 +8705,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>373</v>
+        <v>404</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -8385,55 +8720,57 @@
         <v>102</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>82</v>
+        <v>400</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>378</v>
+        <v>409</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>379</v>
+        <v>410</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>380</v>
+        <v>411</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>380</v>
+        <v>411</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>82</v>
+        <v>412</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>381</v>
+        <v>413</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>82</v>
@@ -8458,13 +8795,13 @@
         <v>82</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>217</v>
+        <v>170</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>383</v>
+        <v>416</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>384</v>
+        <v>417</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>82</v>
@@ -8482,13 +8819,13 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>380</v>
+        <v>411</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>82</v>
@@ -8497,28 +8834,28 @@
         <v>102</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>82</v>
+        <v>418</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>171</v>
+        <v>419</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>82</v>
+        <v>420</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>385</v>
+        <v>421</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>386</v>
+        <v>422</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>386</v>
+        <v>422</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>82</v>
+        <v>412</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8528,29 +8865,27 @@
         <v>81</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>213</v>
+        <v>423</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>387</v>
+        <v>424</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>388</v>
+        <v>414</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>390</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>82</v>
       </c>
@@ -8574,13 +8909,13 @@
         <v>82</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>217</v>
+        <v>82</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>391</v>
+        <v>82</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>392</v>
+        <v>82</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>82</v>
@@ -8598,7 +8933,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>386</v>
+        <v>422</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -8613,24 +8948,24 @@
         <v>102</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>82</v>
+        <v>418</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>393</v>
+        <v>419</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>82</v>
+        <v>420</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>394</v>
+        <v>421</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>395</v>
+        <v>425</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>395</v>
+        <v>425</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8650,16 +8985,16 @@
         <v>82</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>213</v>
+        <v>279</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>396</v>
+        <v>426</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>397</v>
+        <v>427</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8686,13 +9021,13 @@
         <v>82</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>398</v>
+        <v>82</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>399</v>
+        <v>82</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>82</v>
@@ -8710,7 +9045,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>395</v>
+        <v>425</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -8728,21 +9063,21 @@
         <v>82</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>400</v>
+        <v>428</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>401</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>402</v>
+        <v>429</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>402</v>
+        <v>429</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8753,7 +9088,7 @@
         <v>80</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>82</v>
@@ -8765,13 +9100,13 @@
         <v>82</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>213</v>
+        <v>104</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>403</v>
+        <v>105</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>404</v>
+        <v>106</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8798,13 +9133,13 @@
         <v>82</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>405</v>
+        <v>82</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>406</v>
+        <v>82</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>82</v>
@@ -8822,50 +9157,50 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>402</v>
+        <v>107</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>407</v>
+        <v>108</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>408</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>409</v>
+        <v>430</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>409</v>
+        <v>430</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>82</v>
@@ -8877,15 +9212,17 @@
         <v>82</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>369</v>
+        <v>111</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>410</v>
+        <v>112</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -8934,71 +9271,75 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>409</v>
+        <v>118</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>412</v>
+        <v>108</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>413</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>82</v>
+        <v>286</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>213</v>
+        <v>111</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>415</v>
+        <v>287</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>82</v>
       </c>
@@ -9022,13 +9363,13 @@
         <v>82</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>217</v>
+        <v>82</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>417</v>
+        <v>82</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>418</v>
+        <v>82</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>82</v>
@@ -9046,50 +9387,50 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>414</v>
+        <v>289</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>419</v>
+        <v>189</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>420</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>82</v>
+        <v>433</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>82</v>
@@ -9098,19 +9439,19 @@
         <v>82</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>167</v>
+        <v>434</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9160,13 +9501,13 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>82</v>
@@ -9175,24 +9516,24 @@
         <v>102</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>82</v>
+        <v>437</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>82</v>
+        <v>420</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>82</v>
+        <v>439</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9215,13 +9556,13 @@
         <v>82</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>173</v>
+        <v>227</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>174</v>
+        <v>441</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>175</v>
+        <v>442</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9248,13 +9589,13 @@
         <v>82</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>82</v>
+        <v>170</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>82</v>
+        <v>443</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>82</v>
+        <v>444</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>82</v>
@@ -9272,7 +9613,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>176</v>
+        <v>440</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -9284,13 +9625,13 @@
         <v>82</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>171</v>
+        <v>108</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>82</v>
@@ -9299,23 +9640,23 @@
         <v>82</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>82</v>
@@ -9327,17 +9668,15 @@
         <v>82</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>136</v>
+        <v>446</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>137</v>
+        <v>447</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -9386,25 +9725,25 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>179</v>
+        <v>445</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>171</v>
+        <v>449</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>82</v>
@@ -9413,16 +9752,16 @@
         <v>82</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>428</v>
+        <v>450</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>428</v>
+        <v>450</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>181</v>
+        <v>82</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9435,26 +9774,24 @@
         <v>82</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>136</v>
+        <v>451</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>182</v>
+        <v>452</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>183</v>
+        <v>453</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>82</v>
       </c>
@@ -9502,7 +9839,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>184</v>
+        <v>450</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -9514,13 +9851,13 @@
         <v>82</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>133</v>
+        <v>455</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>82</v>
@@ -9529,12 +9866,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9542,13 +9879,13 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>82</v>
@@ -9557,15 +9894,17 @@
         <v>82</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>430</v>
+        <v>279</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>431</v>
+        <v>457</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>82</v>
@@ -9614,10 +9953,10 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>90</v>
@@ -9629,24 +9968,24 @@
         <v>102</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>433</v>
+        <v>82</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>287</v>
+        <v>460</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>434</v>
+        <v>82</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>435</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>436</v>
+        <v>461</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>436</v>
+        <v>461</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9669,17 +10008,15 @@
         <v>82</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>437</v>
+        <v>105</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>439</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>82</v>
@@ -9704,13 +10041,13 @@
         <v>82</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>159</v>
+        <v>82</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>440</v>
+        <v>82</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>441</v>
+        <v>82</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>82</v>
@@ -9728,7 +10065,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>436</v>
+        <v>107</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -9740,13 +10077,13 @@
         <v>82</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>442</v>
+        <v>108</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>82</v>
@@ -9755,23 +10092,23 @@
         <v>82</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>82</v>
@@ -9783,16 +10120,16 @@
         <v>82</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>213</v>
+        <v>111</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>444</v>
+        <v>112</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>445</v>
+        <v>113</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>446</v>
+        <v>114</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -9818,13 +10155,13 @@
         <v>82</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>217</v>
+        <v>82</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>447</v>
+        <v>82</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>448</v>
+        <v>82</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>82</v>
@@ -9842,25 +10179,25 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>443</v>
+        <v>118</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>82</v>
@@ -9869,44 +10206,48 @@
         <v>82</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>82</v>
+        <v>286</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>187</v>
+        <v>111</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>450</v>
+        <v>287</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
       </c>
@@ -9954,25 +10295,25 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>449</v>
+        <v>289</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>280</v>
+        <v>189</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>82</v>
@@ -9981,12 +10322,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10009,13 +10350,13 @@
         <v>82</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>453</v>
+        <v>207</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10066,7 +10407,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -10081,24 +10422,24 @@
         <v>102</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>286</v>
+        <v>82</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>456</v>
+        <v>211</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>457</v>
+        <v>467</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10121,17 +10462,15 @@
         <v>82</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>462</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -10180,7 +10519,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -10195,19 +10534,1959 @@
         <v>102</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>463</v>
+        <v>82</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN74" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="P77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+      <c r="P79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="O82" s="2"/>
+      <c r="P82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="P83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="O84" s="2"/>
+      <c r="P84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="P85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+      <c r="P86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="O87" s="2"/>
+      <c r="P87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="O88" s="2"/>
+      <c r="P88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+      <c r="P89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
+      <c r="P90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="O91" s="2"/>
+      <c r="P91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN91" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AN91">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI90">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/StructureDefinition-us-core-encounter.xlsx
+++ b/StructureDefinition-us-core-encounter.xlsx
@@ -621,10 +621,10 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>Encounter.extension:us-core-interpreter-required</t>
-  </si>
-  <si>
-    <t>us-core-interpreter-required</t>
+    <t>Encounter.extension:interpreterRequired</t>
+  </si>
+  <si>
+    <t>interpreterRequired</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/us/uscdi5-sandbox/StructureDefinition/us-core-interpreter-required}
@@ -2105,9 +2105,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="46.3828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.67578125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="45.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="26.8359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="19.24609375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
